--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>346.7855222089509</v>
+        <v>464.2136120343502</v>
       </c>
       <c r="AB2" t="n">
-        <v>474.4872505837712</v>
+        <v>635.1575436445801</v>
       </c>
       <c r="AC2" t="n">
-        <v>429.2028533350941</v>
+        <v>574.538999128352</v>
       </c>
       <c r="AD2" t="n">
-        <v>346785.5222089508</v>
+        <v>464213.6120343502</v>
       </c>
       <c r="AE2" t="n">
-        <v>474487.2505837713</v>
+        <v>635157.5436445801</v>
       </c>
       <c r="AF2" t="n">
         <v>6.963254946594691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.53472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>429202.8533350941</v>
+        <v>574538.9991283519</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.8906644311953</v>
+        <v>341.8858706378483</v>
       </c>
       <c r="AB3" t="n">
-        <v>347.3844079401956</v>
+        <v>467.7833311468172</v>
       </c>
       <c r="AC3" t="n">
-        <v>314.2305276035657</v>
+        <v>423.1387465601929</v>
       </c>
       <c r="AD3" t="n">
-        <v>253890.6644311953</v>
+        <v>341885.8706378483</v>
       </c>
       <c r="AE3" t="n">
-        <v>347384.4079401956</v>
+        <v>467783.3311468172</v>
       </c>
       <c r="AF3" t="n">
         <v>9.099463152668932e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.24537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>314230.5276035657</v>
+        <v>423138.7465601929</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>216.7414607159218</v>
+        <v>294.9481456522261</v>
       </c>
       <c r="AB4" t="n">
-        <v>296.5552285097843</v>
+        <v>403.5610650752084</v>
       </c>
       <c r="AC4" t="n">
-        <v>268.2524137187752</v>
+        <v>365.0457634259419</v>
       </c>
       <c r="AD4" t="n">
-        <v>216741.4607159218</v>
+        <v>294948.1456522261</v>
       </c>
       <c r="AE4" t="n">
-        <v>296555.2285097843</v>
+        <v>403561.0650752084</v>
       </c>
       <c r="AF4" t="n">
         <v>1.033592264755784e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.18518518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>268252.4137187753</v>
+        <v>365045.7634259419</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>200.6067728295953</v>
+        <v>269.160587140817</v>
       </c>
       <c r="AB5" t="n">
-        <v>274.479036731531</v>
+        <v>368.2773898531094</v>
       </c>
       <c r="AC5" t="n">
-        <v>248.2831426997018</v>
+        <v>333.1295126460908</v>
       </c>
       <c r="AD5" t="n">
-        <v>200606.7728295953</v>
+        <v>269160.587140817</v>
       </c>
       <c r="AE5" t="n">
-        <v>274479.036731531</v>
+        <v>368277.3898531094</v>
       </c>
       <c r="AF5" t="n">
         <v>1.081556261612792e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.51388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>248283.1426997018</v>
+        <v>333129.5126460908</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>196.2614814829017</v>
+        <v>264.713810567638</v>
       </c>
       <c r="AB6" t="n">
-        <v>268.5336174102632</v>
+        <v>362.1931139677492</v>
       </c>
       <c r="AC6" t="n">
-        <v>242.9051458540054</v>
+        <v>327.6259115118946</v>
       </c>
       <c r="AD6" t="n">
-        <v>196261.4814829017</v>
+        <v>264713.810567638</v>
       </c>
       <c r="AE6" t="n">
-        <v>268533.6174102632</v>
+        <v>362193.1139677492</v>
       </c>
       <c r="AF6" t="n">
         <v>1.110142098586096e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.14351851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>242905.1458540054</v>
+        <v>327625.9115118945</v>
       </c>
     </row>
     <row r="7">
@@ -2882,28 +2882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>196.1230817821968</v>
+        <v>264.5754108669332</v>
       </c>
       <c r="AB7" t="n">
-        <v>268.3442528339949</v>
+        <v>362.0037493914809</v>
       </c>
       <c r="AC7" t="n">
-        <v>242.7338539671213</v>
+        <v>327.4546196250104</v>
       </c>
       <c r="AD7" t="n">
-        <v>196123.0817821968</v>
+        <v>264575.4108669332</v>
       </c>
       <c r="AE7" t="n">
-        <v>268344.2528339949</v>
+        <v>362003.7493914809</v>
       </c>
       <c r="AF7" t="n">
         <v>1.108731791638646e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.15509259259259</v>
       </c>
       <c r="AH7" t="n">
-        <v>242733.8539671213</v>
+        <v>327454.6196250104</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.2099895296793</v>
+        <v>380.0154810307605</v>
       </c>
       <c r="AB2" t="n">
-        <v>387.50040201744</v>
+        <v>519.9539462460892</v>
       </c>
       <c r="AC2" t="n">
-        <v>350.5179075091247</v>
+        <v>470.3302713763085</v>
       </c>
       <c r="AD2" t="n">
-        <v>283209.9895296793</v>
+        <v>380015.4810307605</v>
       </c>
       <c r="AE2" t="n">
-        <v>387500.4020174399</v>
+        <v>519953.9462460892</v>
       </c>
       <c r="AF2" t="n">
         <v>8.67805953222812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>350517.9075091247</v>
+        <v>470330.2713763085</v>
       </c>
     </row>
     <row r="3">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.0262010196236</v>
+        <v>290.4705942204911</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.4718462876217</v>
+        <v>397.4346816706808</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.6541823613226</v>
+        <v>359.5040734551094</v>
       </c>
       <c r="AD3" t="n">
-        <v>213026.2010196236</v>
+        <v>290470.5942204911</v>
       </c>
       <c r="AE3" t="n">
-        <v>291471.8462876217</v>
+        <v>397434.6816706808</v>
       </c>
       <c r="AF3" t="n">
         <v>1.099988485042915e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.61342592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>263654.1823613226</v>
+        <v>359504.0734551094</v>
       </c>
     </row>
     <row r="4">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.0527694686917</v>
+        <v>261.7492937117465</v>
       </c>
       <c r="AB4" t="n">
-        <v>265.5115601909256</v>
+        <v>358.136931220265</v>
       </c>
       <c r="AC4" t="n">
-        <v>240.1715095341965</v>
+        <v>323.956845152942</v>
       </c>
       <c r="AD4" t="n">
-        <v>194052.7694686917</v>
+        <v>261749.2937117465</v>
       </c>
       <c r="AE4" t="n">
-        <v>265511.5601909257</v>
+        <v>358136.931220265</v>
       </c>
       <c r="AF4" t="n">
         <v>1.184949961091094e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.49074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>240171.5095341965</v>
+        <v>323956.845152942</v>
       </c>
     </row>
     <row r="5">
@@ -3497,28 +3497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>190.0913956408002</v>
+        <v>257.7879198838517</v>
       </c>
       <c r="AB5" t="n">
-        <v>260.0914337561282</v>
+        <v>352.7168047852935</v>
       </c>
       <c r="AC5" t="n">
-        <v>235.2686723591391</v>
+        <v>319.0540079778351</v>
       </c>
       <c r="AD5" t="n">
-        <v>190091.3956408002</v>
+        <v>257787.9198838517</v>
       </c>
       <c r="AE5" t="n">
-        <v>260091.4337561282</v>
+        <v>352716.8047852935</v>
       </c>
       <c r="AF5" t="n">
         <v>1.218186724337326e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.09722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>235268.6723591391</v>
+        <v>319054.0079778351</v>
       </c>
     </row>
   </sheetData>
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.0771020647411</v>
+        <v>263.8194707560704</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.7036325378903</v>
+        <v>360.9694387820744</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.0133209413782</v>
+        <v>326.5190221685017</v>
       </c>
       <c r="AD2" t="n">
-        <v>189077.1020647411</v>
+        <v>263819.4707560703</v>
       </c>
       <c r="AE2" t="n">
-        <v>258703.6325378903</v>
+        <v>360969.4387820744</v>
       </c>
       <c r="AF2" t="n">
         <v>1.567943631052518e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.28935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>234013.3209413782</v>
+        <v>326519.0221685017</v>
       </c>
     </row>
     <row r="3">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.639151390879</v>
+        <v>240.0602037612593</v>
       </c>
       <c r="AB3" t="n">
-        <v>238.9489914684926</v>
+        <v>328.4609614947368</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.1440350898246</v>
+        <v>297.1131083276315</v>
       </c>
       <c r="AD3" t="n">
-        <v>174639.151390879</v>
+        <v>240060.2037612593</v>
       </c>
       <c r="AE3" t="n">
-        <v>238948.9914684925</v>
+        <v>328460.9614947367</v>
       </c>
       <c r="AF3" t="n">
         <v>1.665800312733756e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.38657407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>216144.0350898246</v>
+        <v>297113.1083276315</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.1041237177323</v>
+        <v>288.8973649378615</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.5784635608808</v>
+        <v>395.2821199602096</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.7506242316601</v>
+        <v>357.5569492131462</v>
       </c>
       <c r="AD2" t="n">
-        <v>213104.1237177323</v>
+        <v>288897.3649378616</v>
       </c>
       <c r="AE2" t="n">
-        <v>291578.4635608809</v>
+        <v>395282.1199602096</v>
       </c>
       <c r="AF2" t="n">
         <v>1.279012777765279e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.22685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>263750.6242316602</v>
+        <v>357556.9492131462</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.5493121843762</v>
+        <v>245.8599832760231</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.667290087158</v>
+        <v>336.3964756950465</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.2211487175181</v>
+        <v>304.2912681902304</v>
       </c>
       <c r="AD3" t="n">
-        <v>179549.3121843762</v>
+        <v>245859.9832760231</v>
       </c>
       <c r="AE3" t="n">
-        <v>245667.290087158</v>
+        <v>336396.4756950465</v>
       </c>
       <c r="AF3" t="n">
         <v>1.474972751540936e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.07407407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>222221.1487175181</v>
+        <v>304291.2681902304</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.8273490795889</v>
+        <v>246.1380201712358</v>
       </c>
       <c r="AB4" t="n">
-        <v>246.0477124333099</v>
+        <v>336.7768980411984</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.5652640888795</v>
+        <v>304.6353835615917</v>
       </c>
       <c r="AD4" t="n">
-        <v>179827.3490795889</v>
+        <v>246138.0201712358</v>
       </c>
       <c r="AE4" t="n">
-        <v>246047.7124333099</v>
+        <v>336776.8980411984</v>
       </c>
       <c r="AF4" t="n">
         <v>1.474201538025253e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.08564814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>222565.2640888795</v>
+        <v>304635.3835615917</v>
       </c>
     </row>
   </sheetData>
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.3859069663056</v>
+        <v>244.3616870769412</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.1295148068931</v>
+        <v>334.3464407353003</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.8799611131195</v>
+        <v>302.4368856897997</v>
       </c>
       <c r="AD2" t="n">
-        <v>170385.9069663056</v>
+        <v>244361.6870769412</v>
       </c>
       <c r="AE2" t="n">
-        <v>233129.5148068931</v>
+        <v>334346.4407353004</v>
       </c>
       <c r="AF2" t="n">
         <v>1.85075582812727e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.83796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>210879.9611131196</v>
+        <v>302436.8856897997</v>
       </c>
     </row>
   </sheetData>
@@ -5003,28 +5003,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.1678073540685</v>
+        <v>397.1897745346317</v>
       </c>
       <c r="AB2" t="n">
-        <v>410.7028364908914</v>
+        <v>543.4525722944411</v>
       </c>
       <c r="AC2" t="n">
-        <v>371.5059342012513</v>
+        <v>491.5862215351345</v>
       </c>
       <c r="AD2" t="n">
-        <v>300167.8073540685</v>
+        <v>397189.7745346318</v>
       </c>
       <c r="AE2" t="n">
-        <v>410702.8364908914</v>
+        <v>543452.5722944411</v>
       </c>
       <c r="AF2" t="n">
         <v>8.226324188597019e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.37037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>371505.9342012512</v>
+        <v>491586.2215351345</v>
       </c>
     </row>
     <row r="3">
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.1754964413859</v>
+        <v>304.4875238932678</v>
       </c>
       <c r="AB3" t="n">
-        <v>297.1490953376687</v>
+        <v>416.6132632322677</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.7896027301039</v>
+        <v>376.8522781097666</v>
       </c>
       <c r="AD3" t="n">
-        <v>217175.4964413859</v>
+        <v>304487.5238932678</v>
       </c>
       <c r="AE3" t="n">
-        <v>297149.0953376687</v>
+        <v>416613.2632322678</v>
       </c>
       <c r="AF3" t="n">
         <v>1.054042129815026e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.90277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>268789.6027301039</v>
+        <v>376852.2781097667</v>
       </c>
     </row>
     <row r="4">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>197.556284369425</v>
+        <v>275.1935485412607</v>
       </c>
       <c r="AB4" t="n">
-        <v>270.3052238422753</v>
+        <v>376.5319537966692</v>
       </c>
       <c r="AC4" t="n">
-        <v>244.5076726546121</v>
+        <v>340.5962725922306</v>
       </c>
       <c r="AD4" t="n">
-        <v>197556.284369425</v>
+        <v>275193.5485412607</v>
       </c>
       <c r="AE4" t="n">
-        <v>270305.2238422753</v>
+        <v>376531.9537966692</v>
       </c>
       <c r="AF4" t="n">
         <v>1.142409885162312e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.66435185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>244507.6726546121</v>
+        <v>340596.2725922306</v>
       </c>
     </row>
     <row r="5">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>191.5358184470852</v>
+        <v>259.4309995311705</v>
       </c>
       <c r="AB5" t="n">
-        <v>262.0677567631231</v>
+        <v>354.96493884648</v>
       </c>
       <c r="AC5" t="n">
-        <v>237.0563778721339</v>
+        <v>321.0875832793918</v>
       </c>
       <c r="AD5" t="n">
-        <v>191535.8184470852</v>
+        <v>259430.9995311705</v>
       </c>
       <c r="AE5" t="n">
-        <v>262067.7567631231</v>
+        <v>354964.93884648</v>
       </c>
       <c r="AF5" t="n">
         <v>1.190249810390469e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.07407407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>237056.3778721339</v>
+        <v>321087.5832793918</v>
       </c>
     </row>
     <row r="6">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>191.561475915037</v>
+        <v>259.4566569991222</v>
       </c>
       <c r="AB6" t="n">
-        <v>262.1028624427022</v>
+        <v>355.0000445260592</v>
       </c>
       <c r="AC6" t="n">
-        <v>237.0881331149251</v>
+        <v>321.119338522183</v>
       </c>
       <c r="AD6" t="n">
-        <v>191561.475915037</v>
+        <v>259456.6569991222</v>
       </c>
       <c r="AE6" t="n">
-        <v>262102.8624427023</v>
+        <v>355000.0445260592</v>
       </c>
       <c r="AF6" t="n">
         <v>1.190191892805447e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.08564814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>237088.1331149251</v>
+        <v>321119.338522183</v>
       </c>
     </row>
   </sheetData>
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.9534739923042</v>
+        <v>251.368135670846</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.4837938693539</v>
+        <v>343.9329728041728</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.2460423141844</v>
+        <v>311.1084925928041</v>
       </c>
       <c r="AD2" t="n">
-        <v>177953.4739923042</v>
+        <v>251368.135670846</v>
       </c>
       <c r="AE2" t="n">
-        <v>243483.7938693539</v>
+        <v>343932.9728041728</v>
       </c>
       <c r="AF2" t="n">
         <v>1.956649995457985e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.34722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>220246.0423141844</v>
+        <v>311108.4925928041</v>
       </c>
     </row>
   </sheetData>
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>242.2237325034236</v>
+        <v>338.0398395017955</v>
       </c>
       <c r="AB2" t="n">
-        <v>331.4211969679161</v>
+        <v>462.5210216715511</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.7908230819682</v>
+        <v>418.3786645155484</v>
       </c>
       <c r="AD2" t="n">
-        <v>242223.7325034236</v>
+        <v>338039.8395017955</v>
       </c>
       <c r="AE2" t="n">
-        <v>331421.1969679161</v>
+        <v>462521.0216715511</v>
       </c>
       <c r="AF2" t="n">
         <v>1.039601520478833e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.96296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>299790.8230819682</v>
+        <v>418378.6645155484</v>
       </c>
     </row>
     <row r="3">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.6410161009441</v>
+        <v>267.3144009509099</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.8434487172399</v>
+        <v>365.7513564600923</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.9489160678223</v>
+        <v>330.8445603347932</v>
       </c>
       <c r="AD3" t="n">
-        <v>190641.0161009441</v>
+        <v>267314.4009509099</v>
       </c>
       <c r="AE3" t="n">
-        <v>260843.44871724</v>
+        <v>365751.3564600922</v>
       </c>
       <c r="AF3" t="n">
         <v>1.269738497092631e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.71064814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>235948.9160678223</v>
+        <v>330844.5603347932</v>
       </c>
     </row>
     <row r="4">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>184.9755352100937</v>
+        <v>252.0273218875397</v>
       </c>
       <c r="AB4" t="n">
-        <v>253.0916878190056</v>
+        <v>344.8349004670961</v>
       </c>
       <c r="AC4" t="n">
-        <v>228.9369723500482</v>
+        <v>311.9243415454418</v>
       </c>
       <c r="AD4" t="n">
-        <v>184975.5352100937</v>
+        <v>252027.3218875397</v>
       </c>
       <c r="AE4" t="n">
-        <v>253091.6878190056</v>
+        <v>344834.9004670961</v>
       </c>
       <c r="AF4" t="n">
         <v>1.329224968823917e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.05092592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>228936.9723500482</v>
+        <v>311924.3415454418</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.5629678683207</v>
+        <v>371.9723869761349</v>
       </c>
       <c r="AB2" t="n">
-        <v>377.0374096175833</v>
+        <v>508.9490301242839</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.0534884190082</v>
+        <v>460.3756490036716</v>
       </c>
       <c r="AD2" t="n">
-        <v>275562.9678683207</v>
+        <v>371972.386976135</v>
       </c>
       <c r="AE2" t="n">
-        <v>377037.4096175833</v>
+        <v>508949.0301242839</v>
       </c>
       <c r="AF2" t="n">
         <v>9.203299664796027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.15509259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>341053.4884190082</v>
+        <v>460375.6490036717</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.9080163432276</v>
+        <v>286.0152545841845</v>
       </c>
       <c r="AB3" t="n">
-        <v>285.8371643318941</v>
+        <v>391.3386894245735</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.557266543122</v>
+        <v>353.9898741531917</v>
       </c>
       <c r="AD3" t="n">
-        <v>208908.0163432276</v>
+        <v>286015.2545841845</v>
       </c>
       <c r="AE3" t="n">
-        <v>285837.1643318941</v>
+        <v>391338.6894245736</v>
       </c>
       <c r="AF3" t="n">
         <v>1.149346415313338e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.33564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>258557.266543122</v>
+        <v>353989.8741531917</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.0116759337485</v>
+        <v>257.5019891600528</v>
       </c>
       <c r="AB4" t="n">
-        <v>259.9823577359548</v>
+        <v>352.3255817546188</v>
       </c>
       <c r="AC4" t="n">
-        <v>235.1700064012419</v>
+        <v>318.7001227241229</v>
       </c>
       <c r="AD4" t="n">
-        <v>190011.6759337485</v>
+        <v>257501.9891600528</v>
       </c>
       <c r="AE4" t="n">
-        <v>259982.3577359549</v>
+        <v>352325.5817546188</v>
       </c>
       <c r="AF4" t="n">
         <v>1.239594551753603e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.22453703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>235170.0064012419</v>
+        <v>318700.1227241229</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>178.1660508906234</v>
+        <v>255.3064435205003</v>
       </c>
       <c r="AB5" t="n">
-        <v>243.774650959865</v>
+        <v>349.321539349947</v>
       </c>
       <c r="AC5" t="n">
-        <v>220.5091404121976</v>
+        <v>315.9827819103521</v>
       </c>
       <c r="AD5" t="n">
-        <v>178166.0508906234</v>
+        <v>255306.4435205003</v>
       </c>
       <c r="AE5" t="n">
-        <v>243774.650959865</v>
+        <v>349321.539349947</v>
       </c>
       <c r="AF5" t="n">
         <v>1.259590468585542e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.99305555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>220509.1404121976</v>
+        <v>315982.7819103521</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.1262358890832</v>
+        <v>445.2119247727758</v>
       </c>
       <c r="AB2" t="n">
-        <v>448.9567918513137</v>
+        <v>609.1585968380158</v>
       </c>
       <c r="AC2" t="n">
-        <v>406.1089857518384</v>
+        <v>551.0213553152553</v>
       </c>
       <c r="AD2" t="n">
-        <v>328126.2358890832</v>
+        <v>445211.9247727758</v>
       </c>
       <c r="AE2" t="n">
-        <v>448956.7918513137</v>
+        <v>609158.5968380158</v>
       </c>
       <c r="AF2" t="n">
         <v>7.329086172997412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.86342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>406108.9857518384</v>
+        <v>551021.3553152552</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.0927344724886</v>
+        <v>324.9240838446515</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.4007390983371</v>
+        <v>444.5754661551443</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.4403878581851</v>
+        <v>402.1458076308822</v>
       </c>
       <c r="AD3" t="n">
-        <v>237092.7344724886</v>
+        <v>324924.0838446515</v>
       </c>
       <c r="AE3" t="n">
-        <v>324400.7390983371</v>
+        <v>444575.4661551443</v>
       </c>
       <c r="AF3" t="n">
         <v>9.605477633945589e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.67824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>293440.3878581851</v>
+        <v>402145.8076308822</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.2575327702647</v>
+        <v>280.3260471656559</v>
       </c>
       <c r="AB4" t="n">
-        <v>276.7376793087427</v>
+        <v>383.5544648444255</v>
       </c>
       <c r="AC4" t="n">
-        <v>250.3262235993697</v>
+        <v>346.9485650417451</v>
       </c>
       <c r="AD4" t="n">
-        <v>202257.5327702647</v>
+        <v>280326.0471656559</v>
       </c>
       <c r="AE4" t="n">
-        <v>276737.6793087426</v>
+        <v>383554.4648444254</v>
       </c>
       <c r="AF4" t="n">
         <v>1.080161107812197e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.83796296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>250326.2235993697</v>
+        <v>346948.5650417451</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>197.2018252093916</v>
+        <v>265.4743502390879</v>
       </c>
       <c r="AB5" t="n">
-        <v>269.8202371818835</v>
+        <v>363.2337178988692</v>
       </c>
       <c r="AC5" t="n">
-        <v>244.0689724404048</v>
+        <v>328.5672016643253</v>
       </c>
       <c r="AD5" t="n">
-        <v>197201.8252093916</v>
+        <v>265474.3502390879</v>
       </c>
       <c r="AE5" t="n">
-        <v>269820.2371818835</v>
+        <v>363233.7178988692</v>
       </c>
       <c r="AF5" t="n">
         <v>1.120198352263101e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.30555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>244068.9724404048</v>
+        <v>328567.2016643253</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>194.2803296478544</v>
+        <v>262.5528546775507</v>
       </c>
       <c r="AB6" t="n">
-        <v>265.8229180673024</v>
+        <v>359.2363987842861</v>
       </c>
       <c r="AC6" t="n">
-        <v>240.4531518518455</v>
+        <v>324.9513810757654</v>
       </c>
       <c r="AD6" t="n">
-        <v>194280.3296478543</v>
+        <v>262552.8546775507</v>
       </c>
       <c r="AE6" t="n">
-        <v>265822.9180673024</v>
+        <v>359236.3987842861</v>
       </c>
       <c r="AF6" t="n">
         <v>1.137877315321125e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.08564814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>240453.1518518455</v>
+        <v>324951.3810757654</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.6496227519419</v>
+        <v>305.2931352360184</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.5343041065191</v>
+        <v>417.7155362124832</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.8517319252268</v>
+        <v>377.8493517038002</v>
       </c>
       <c r="AD2" t="n">
-        <v>219649.6227519419</v>
+        <v>305293.1352360185</v>
       </c>
       <c r="AE2" t="n">
-        <v>300534.3041065192</v>
+        <v>417715.5362124832</v>
       </c>
       <c r="AF2" t="n">
         <v>1.186919721289429e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.8287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>271851.7319252267</v>
+        <v>377849.3517038001</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.6531143961084</v>
+        <v>247.7427194721942</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.8633639175945</v>
+        <v>338.9725184191053</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.4483340981687</v>
+        <v>306.6214570122045</v>
       </c>
       <c r="AD3" t="n">
-        <v>171653.1143961083</v>
+        <v>247742.7194721942</v>
       </c>
       <c r="AE3" t="n">
-        <v>234863.3639175945</v>
+        <v>338972.5184191053</v>
       </c>
       <c r="AF3" t="n">
         <v>1.428145466424983e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.98148148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>212448.3340981687</v>
+        <v>306621.4570122045</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.3818644550661</v>
+        <v>247.9527385718032</v>
       </c>
       <c r="AB4" t="n">
-        <v>248.1746689504149</v>
+        <v>339.259875816579</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.4892268611949</v>
+        <v>306.881389422972</v>
       </c>
       <c r="AD4" t="n">
-        <v>181381.8644550661</v>
+        <v>247952.7385718032</v>
       </c>
       <c r="AE4" t="n">
-        <v>248174.6689504149</v>
+        <v>339259.875816579</v>
       </c>
       <c r="AF4" t="n">
         <v>1.424486608446251e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.02777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>224489.2268611949</v>
+        <v>306881.389422972</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.0473638474772</v>
+        <v>256.8207430390803</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.3994316308437</v>
+        <v>351.3934707574469</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.4518367524787</v>
+        <v>317.8569710922949</v>
       </c>
       <c r="AD2" t="n">
-        <v>191047.3638474772</v>
+        <v>256820.7430390803</v>
       </c>
       <c r="AE2" t="n">
-        <v>261399.4316308436</v>
+        <v>351393.470757447</v>
       </c>
       <c r="AF2" t="n">
         <v>1.506251850362241e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.08101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>236451.8367524787</v>
+        <v>317856.9710922949</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.1803259756524</v>
+        <v>241.9195397484747</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.0576945272024</v>
+        <v>331.004987020558</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.0514864881952</v>
+        <v>299.4143356278315</v>
       </c>
       <c r="AD3" t="n">
-        <v>176180.3259756523</v>
+        <v>241919.5397484747</v>
       </c>
       <c r="AE3" t="n">
-        <v>241057.6945272024</v>
+        <v>331004.987020558</v>
       </c>
       <c r="AF3" t="n">
         <v>1.597681969585183e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.21296296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>218051.4864881952</v>
+        <v>299414.3356278315</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.9258033741251</v>
+        <v>247.3393772965617</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.6047131243912</v>
+        <v>338.4206478602043</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.0234913806682</v>
+        <v>306.1222562048896</v>
       </c>
       <c r="AD2" t="n">
-        <v>172925.8033741251</v>
+        <v>247339.3772965617</v>
       </c>
       <c r="AE2" t="n">
-        <v>236604.7131243912</v>
+        <v>338420.6478602043</v>
       </c>
       <c r="AF2" t="n">
         <v>1.738903064287909e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.66435185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>214023.4913806682</v>
+        <v>306122.2562048896</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.6909997294458</v>
+        <v>247.1045736518825</v>
       </c>
       <c r="AB3" t="n">
-        <v>236.2834444189355</v>
+        <v>338.0993791547485</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.7328841095576</v>
+        <v>305.831648933779</v>
       </c>
       <c r="AD3" t="n">
-        <v>172690.9997294458</v>
+        <v>247104.5736518825</v>
       </c>
       <c r="AE3" t="n">
-        <v>236283.4444189355</v>
+        <v>338099.3791547485</v>
       </c>
       <c r="AF3" t="n">
         <v>1.752302806535624e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.56018518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>213732.8841095576</v>
+        <v>305831.648933779</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.129322877911</v>
+        <v>258.0037266877172</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.3021068907462</v>
+        <v>353.0120811750663</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.127309320907</v>
+        <v>319.3211036033913</v>
       </c>
       <c r="AD2" t="n">
-        <v>185129.322877911</v>
+        <v>258003.7266877172</v>
       </c>
       <c r="AE2" t="n">
-        <v>253302.1068907462</v>
+        <v>353012.0811750664</v>
       </c>
       <c r="AF2" t="n">
         <v>2.080078202564545e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.21527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>229127.309320907</v>
+        <v>319321.1036033913</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.2964941953078</v>
+        <v>355.466680698699</v>
       </c>
       <c r="AB2" t="n">
-        <v>354.7809027119961</v>
+        <v>486.3651946151275</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.9211112952867</v>
+        <v>439.9471830588969</v>
       </c>
       <c r="AD2" t="n">
-        <v>259296.4941953079</v>
+        <v>355466.680698699</v>
       </c>
       <c r="AE2" t="n">
-        <v>354780.9027119961</v>
+        <v>486365.1946151275</v>
       </c>
       <c r="AF2" t="n">
         <v>9.736425609335096e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.61111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>320921.1112952867</v>
+        <v>439947.1830588969</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.4816159185648</v>
+        <v>271.4109320375239</v>
       </c>
       <c r="AB3" t="n">
-        <v>266.0983268230117</v>
+        <v>371.3564110189939</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.7022759824486</v>
+        <v>335.9146763533367</v>
       </c>
       <c r="AD3" t="n">
-        <v>194481.6159185648</v>
+        <v>271410.9320375239</v>
       </c>
       <c r="AE3" t="n">
-        <v>266098.3268230117</v>
+        <v>371356.4110189939</v>
       </c>
       <c r="AF3" t="n">
         <v>1.211596055030225e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.9537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>240702.2759824486</v>
+        <v>335914.6763533367</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>186.6664540437541</v>
+        <v>253.9421805815691</v>
       </c>
       <c r="AB4" t="n">
-        <v>255.4052775652927</v>
+        <v>347.4548946098692</v>
       </c>
       <c r="AC4" t="n">
-        <v>231.029756338094</v>
+        <v>314.2942871244143</v>
       </c>
       <c r="AD4" t="n">
-        <v>186666.4540437541</v>
+        <v>253942.1805815691</v>
       </c>
       <c r="AE4" t="n">
-        <v>255405.2775652927</v>
+        <v>347454.8946098692</v>
       </c>
       <c r="AF4" t="n">
         <v>1.289311453240413e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>231029.756338094</v>
+        <v>314294.2871244143</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>186.5059474001422</v>
+        <v>253.7816739379572</v>
       </c>
       <c r="AB5" t="n">
-        <v>255.1856652944496</v>
+        <v>347.2352823390261</v>
       </c>
       <c r="AC5" t="n">
-        <v>230.8311035541523</v>
+        <v>314.0956343404727</v>
       </c>
       <c r="AD5" t="n">
-        <v>186505.9474001422</v>
+        <v>253781.6739379572</v>
       </c>
       <c r="AE5" t="n">
-        <v>255185.6652944496</v>
+        <v>347235.2823390261</v>
       </c>
       <c r="AF5" t="n">
         <v>1.293742937764588e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.00462962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>230831.1035541523</v>
+        <v>314095.6343404727</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>318.8334718845492</v>
+        <v>416.1636054252249</v>
       </c>
       <c r="AB2" t="n">
-        <v>436.2420221724967</v>
+        <v>569.4134047852922</v>
       </c>
       <c r="AC2" t="n">
-        <v>394.6076958458764</v>
+        <v>515.0693886093161</v>
       </c>
       <c r="AD2" t="n">
-        <v>318833.4718845492</v>
+        <v>416163.6054252249</v>
       </c>
       <c r="AE2" t="n">
-        <v>436242.0221724967</v>
+        <v>569413.4047852922</v>
       </c>
       <c r="AF2" t="n">
         <v>7.758954082572597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>394607.6958458764</v>
+        <v>515069.3886093161</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>232.1874533249704</v>
+        <v>310.0107638609482</v>
       </c>
       <c r="AB3" t="n">
-        <v>317.689117026575</v>
+        <v>424.1704038241982</v>
       </c>
       <c r="AC3" t="n">
-        <v>287.369313577129</v>
+        <v>383.6881758101168</v>
       </c>
       <c r="AD3" t="n">
-        <v>232187.4533249704</v>
+        <v>310010.7638609482</v>
       </c>
       <c r="AE3" t="n">
-        <v>317689.117026575</v>
+        <v>424170.4038241982</v>
       </c>
       <c r="AF3" t="n">
         <v>1.003191050504043e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.31944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>287369.313577129</v>
+        <v>383688.1758101168</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>200.7417440657948</v>
+        <v>278.5982089906958</v>
       </c>
       <c r="AB4" t="n">
-        <v>274.6637103314098</v>
+        <v>381.1903604266046</v>
       </c>
       <c r="AC4" t="n">
-        <v>248.4501913103992</v>
+        <v>344.8100874315197</v>
       </c>
       <c r="AD4" t="n">
-        <v>200741.7440657948</v>
+        <v>278598.2089906958</v>
       </c>
       <c r="AE4" t="n">
-        <v>274663.7103314098</v>
+        <v>381190.3604266046</v>
       </c>
       <c r="AF4" t="n">
         <v>1.101571690478015e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.86111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>248450.1913103992</v>
+        <v>344810.0874315196</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>194.4744291099654</v>
+        <v>262.5614108529828</v>
       </c>
       <c r="AB5" t="n">
-        <v>266.0884935144265</v>
+        <v>359.2481057209841</v>
       </c>
       <c r="AC5" t="n">
-        <v>240.6933811510336</v>
+        <v>324.9619707188558</v>
       </c>
       <c r="AD5" t="n">
-        <v>194474.4291099654</v>
+        <v>262561.4108529828</v>
       </c>
       <c r="AE5" t="n">
-        <v>266088.4935144265</v>
+        <v>359248.1057209842</v>
       </c>
       <c r="AF5" t="n">
         <v>1.152311367588135e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.21296296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>240693.3811510336</v>
+        <v>324961.9707188558</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>192.8748213737227</v>
+        <v>260.9618031167401</v>
       </c>
       <c r="AB6" t="n">
-        <v>263.8998396399876</v>
+        <v>357.0594518465442</v>
       </c>
       <c r="AC6" t="n">
-        <v>238.7136093305755</v>
+        <v>322.9821988983973</v>
       </c>
       <c r="AD6" t="n">
-        <v>192874.8213737227</v>
+        <v>260961.8031167401</v>
       </c>
       <c r="AE6" t="n">
-        <v>263899.8396399876</v>
+        <v>357059.4518465442</v>
       </c>
       <c r="AF6" t="n">
         <v>1.164126099988288e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.0625</v>
       </c>
       <c r="AH6" t="n">
-        <v>238713.6093305754</v>
+        <v>322982.1988983973</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.807229950016</v>
+        <v>283.0069343619484</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.1215551241202</v>
+        <v>387.2225729787887</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.7689014421918</v>
+        <v>350.2665940839868</v>
       </c>
       <c r="AD2" t="n">
-        <v>201807.229950016</v>
+        <v>283006.9343619483</v>
       </c>
       <c r="AE2" t="n">
-        <v>276121.5551241202</v>
+        <v>387222.5729787886</v>
       </c>
       <c r="AF2" t="n">
         <v>2.172274914707253e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.28703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>249768.9014421918</v>
+        <v>350266.5940839868</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.2353534490529</v>
+        <v>271.6787311066863</v>
       </c>
       <c r="AB2" t="n">
-        <v>268.4978678816639</v>
+        <v>371.7228255198831</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.8728082102407</v>
+        <v>336.246120768527</v>
       </c>
       <c r="AD2" t="n">
-        <v>196235.3534490529</v>
+        <v>271678.7311066863</v>
       </c>
       <c r="AE2" t="n">
-        <v>268497.8678816638</v>
+        <v>371722.8255198831</v>
       </c>
       <c r="AF2" t="n">
         <v>1.397981188273943e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.49768518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>242872.8082102407</v>
+        <v>336246.120768527</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.1131050290111</v>
+        <v>244.1475402449074</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.7022080962004</v>
+        <v>334.0534355922206</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.443611393767</v>
+        <v>302.1718445463399</v>
       </c>
       <c r="AD3" t="n">
-        <v>178113.1050290111</v>
+        <v>244147.5402449074</v>
       </c>
       <c r="AE3" t="n">
-        <v>243702.2080962004</v>
+        <v>334053.4355922206</v>
       </c>
       <c r="AF3" t="n">
         <v>1.527874063095696e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.17824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>220443.611393767</v>
+        <v>302171.8445463399</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.2516522047012</v>
+        <v>321.1446985203186</v>
       </c>
       <c r="AB2" t="n">
-        <v>321.8816891167345</v>
+        <v>439.4043444196791</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.1617524713169</v>
+        <v>397.4682104961349</v>
       </c>
       <c r="AD2" t="n">
-        <v>235251.6522047012</v>
+        <v>321144.6985203186</v>
       </c>
       <c r="AE2" t="n">
-        <v>321881.6891167345</v>
+        <v>439404.3444196791</v>
       </c>
       <c r="AF2" t="n">
         <v>1.112673855630708e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.33796296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>291161.7524713169</v>
+        <v>397468.2104961349</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.0686241879579</v>
+        <v>252.8859400241079</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.5873003822009</v>
+        <v>346.0096996811068</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.2898457493179</v>
+        <v>312.9870195713088</v>
       </c>
       <c r="AD3" t="n">
-        <v>186068.6241879579</v>
+        <v>252885.9400241079</v>
       </c>
       <c r="AE3" t="n">
-        <v>254587.3003822009</v>
+        <v>346009.6996811068</v>
       </c>
       <c r="AF3" t="n">
         <v>1.343313767508033e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.35185185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>230289.845749318</v>
+        <v>312987.0195713088</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.3333857728474</v>
+        <v>249.7046385282623</v>
       </c>
       <c r="AB4" t="n">
-        <v>237.1623853435892</v>
+        <v>341.6569026253765</v>
       </c>
       <c r="AC4" t="n">
-        <v>214.527940145964</v>
+        <v>309.0496473573869</v>
       </c>
       <c r="AD4" t="n">
-        <v>173333.3857728474</v>
+        <v>249704.6385282623</v>
       </c>
       <c r="AE4" t="n">
-        <v>237162.3853435892</v>
+        <v>341656.9026253765</v>
       </c>
       <c r="AF4" t="n">
         <v>1.378007235937235e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.99305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>214527.940145964</v>
+        <v>309049.6473573869</v>
       </c>
     </row>
   </sheetData>
